--- a/data/trans_orig/Q61A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de meses que lleva en paro</t>
+          <t>Número medio de meses que lleva en paro</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,2</t>
+          <t>6,23; 10,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 21,56</t>
+          <t>16,0; 21,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,0; 28,59</t>
+          <t>20,35; 28,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,48; 46,16</t>
+          <t>19,2; 48,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,16</t>
+          <t>4,96; 8,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,74; 26,88</t>
+          <t>17,78; 26,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 25,61</t>
+          <t>17,02; 25,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 48,41</t>
+          <t>23,67; 48,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 8,94</t>
+          <t>6,24; 8,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,14; 22,09</t>
+          <t>17,34; 22,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,9; 25,88</t>
+          <t>19,72; 25,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,14; 41,5</t>
+          <t>22,52; 40,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,51</t>
+          <t>3,87; 8,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 15,66</t>
+          <t>12,09; 15,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 21,28</t>
+          <t>17,02; 21,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,9; 23,82</t>
+          <t>16,36; 24,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,61</t>
+          <t>6,15; 10,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 21,58</t>
+          <t>15,31; 21,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,16; 27,05</t>
+          <t>21,37; 26,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 26,82</t>
+          <t>18,92; 27,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 8,75</t>
+          <t>5,34; 8,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,08; 17,42</t>
+          <t>13,85; 16,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,73; 23,58</t>
+          <t>19,76; 23,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,6; 24,12</t>
+          <t>18,47; 24,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,48</t>
+          <t>3,03; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 20,6</t>
+          <t>11,17; 20,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 20,14</t>
+          <t>11,67; 20,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 30,28</t>
+          <t>13,15; 30,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 38,44</t>
+          <t>3,63; 32,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 19,93</t>
+          <t>12,03; 20,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 24,46</t>
+          <t>14,93; 24,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,83; 28,11</t>
+          <t>14,9; 27,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 24,18</t>
+          <t>4,08; 27,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 18,0</t>
+          <t>12,27; 18,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 21,49</t>
+          <t>14,21; 21,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 26,07</t>
+          <t>15,1; 25,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,57</t>
+          <t>5,02; 8,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 16,51</t>
+          <t>13,66; 16,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 21,35</t>
+          <t>18,11; 21,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,03</t>
+          <t>17,54; 25,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,24</t>
+          <t>6,37; 11,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 20,71</t>
+          <t>16,38; 20,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 24,97</t>
+          <t>20,44; 24,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,46; 27,16</t>
+          <t>20,21; 26,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,75</t>
+          <t>5,95; 8,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 17,66</t>
+          <t>15,3; 17,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,58; 22,51</t>
+          <t>19,88; 22,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,04; 24,98</t>
+          <t>19,99; 24,87</t>
         </is>
       </c>
     </row>
